--- a/container/src/app/core/translations/Translations.xlsx
+++ b/container/src/app/core/translations/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1030">
   <si>
     <t>subject</t>
   </si>
@@ -20,6 +20,24 @@
     <t>Subjects</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>group.plural</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
     <t>button.save</t>
   </si>
   <si>
@@ -32,6 +50,246 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>button.add</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>button.join</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>button.cancel</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>fio</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>modules</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>date.required</t>
+  </si>
+  <si>
+    <t>Date is required</t>
+  </si>
+  <si>
+    <t>date.selected</t>
+  </si>
+  <si>
+    <t>Selected dates</t>
+  </si>
+  <si>
+    <t>date.delete</t>
+  </si>
+  <si>
+    <t>Delete date</t>
+  </si>
+  <si>
+    <t>lesson.start</t>
+  </si>
+  <si>
+    <t>Start of class</t>
+  </si>
+  <si>
+    <t>lesson.start.required</t>
+  </si>
+  <si>
+    <t>Start of class is requried</t>
+  </si>
+  <si>
+    <t>lesson.end</t>
+  </si>
+  <si>
+    <t>End of class</t>
+  </si>
+  <si>
+    <t>lesson.end.required</t>
+  </si>
+  <si>
+    <t>End of class is required</t>
+  </si>
+  <si>
+    <t>lesson.building</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>lesson.audience</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>lesson.audience.required</t>
+  </si>
+  <si>
+    <t>Audience is required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>short.name</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>subject.choose</t>
+  </si>
+  <si>
+    <t>Choose subject</t>
+  </si>
+  <si>
+    <t>subject.deleting</t>
+  </si>
+  <si>
+    <t>Deleting a subject</t>
+  </si>
+  <si>
+    <t>subject.singular</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>subject.add</t>
+  </si>
+  <si>
+    <t>Add subject</t>
+  </si>
+  <si>
+    <t>subject.name</t>
+  </si>
+  <si>
+    <t>Subject name</t>
+  </si>
+  <si>
+    <t>subject.color</t>
+  </si>
+  <si>
+    <t>Subject color</t>
+  </si>
+  <si>
+    <t>subject.edit</t>
+  </si>
+  <si>
+    <t>Edit subject</t>
+  </si>
+  <si>
+    <t>subject.delete</t>
+  </si>
+  <si>
+    <t>Delete subject</t>
+  </si>
+  <si>
+    <t>subject.lector.join</t>
+  </si>
+  <si>
+    <t>Join lecor</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>subject.creation</t>
+  </si>
+  <si>
+    <t>Subject creation</t>
+  </si>
+  <si>
+    <t>subject.editing</t>
+  </si>
+  <si>
+    <t>Subject editing</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>subgroup</t>
+  </si>
+  <si>
+    <t>Subgroup</t>
+  </si>
+  <si>
+    <t>subdivision</t>
+  </si>
+  <si>
+    <t>Subdivision</t>
+  </si>
+  <si>
+    <t>subgroup.management</t>
+  </si>
+  <si>
+    <t>Subgroup management</t>
+  </si>
+  <si>
+    <t>subject.management</t>
+  </si>
+  <si>
+    <t>Subject management</t>
+  </si>
+  <si>
+    <t>subject.abbreviation</t>
+  </si>
+  <si>
+    <t>symbols.min.length</t>
+  </si>
+  <si>
+    <t>Minimum number of characters</t>
+  </si>
+  <si>
+    <t>symbols.max.length</t>
+  </si>
+  <si>
+    <t>Maximum number of characters</t>
+  </si>
+  <si>
+    <t>comment.for.student</t>
+  </si>
+  <si>
+    <t>Show comment for student</t>
+  </si>
+  <si>
     <t>text.test.passing.now</t>
   </si>
   <si>
@@ -236,6 +494,12 @@
     <t>Assignment to the question</t>
   </si>
   <si>
+    <t>text.test.open.window</t>
+  </si>
+  <si>
+    <t>Open description</t>
+  </si>
+  <si>
     <t>text.test.answers</t>
   </si>
   <si>
@@ -335,7 +599,7 @@
     <t>text.test.back.to.test</t>
   </si>
   <si>
-    <t>Back to tests</t>
+    <t>&lt; Tests</t>
   </si>
   <si>
     <t>text.test.questions</t>
@@ -482,6 +746,12 @@
     <t>name of the student</t>
   </si>
   <si>
+    <t>text.test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>text.test.not.passed</t>
   </si>
   <si>
@@ -545,9 +815,6 @@
     <t>text.test.student.name</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>text.test.group</t>
   </si>
   <si>
@@ -737,18 +1004,1299 @@
     <t>text.test.your.mark</t>
   </si>
   <si>
-    <t>Your mark is {mark}</t>
+    <t>Your mark is {mark} ({percent}%)</t>
+  </si>
+  <si>
+    <t>text.test.result.test</t>
+  </si>
+  <si>
+    <t>Test results</t>
+  </si>
+  <si>
+    <t>text.test.control.compleating.test</t>
+  </si>
+  <si>
+    <t>Test passing control</t>
+  </si>
+  <si>
+    <t>text.test.theme.test</t>
+  </si>
+  <si>
+    <t>Test Themes</t>
+  </si>
+  <si>
+    <t>text.test.date.completing</t>
+  </si>
+  <si>
+    <t>Date passing test: </t>
+  </si>
+  <si>
+    <t>text.test.time.start</t>
+  </si>
+  <si>
+    <t>Test start time: </t>
+  </si>
+  <si>
+    <t>text.test.time.end</t>
+  </si>
+  <si>
+    <t>Test end time: </t>
+  </si>
+  <si>
+    <t>text.test.time.for.question</t>
+  </si>
+  <si>
+    <t>Time for question (sec)</t>
+  </si>
+  <si>
+    <t>text.test.result.mark</t>
+  </si>
+  <si>
+    <t>Mark: {mark} ({percent}%)</t>
+  </si>
+  <si>
+    <t>text.test.new.questions.for.test</t>
+  </si>
+  <si>
+    <t>Question №{number}</t>
+  </si>
+  <si>
+    <t>text.schedule.select.type.lesson</t>
+  </si>
+  <si>
+    <t>Select type of lesson</t>
+  </si>
+  <si>
+    <t>text.schedule.select.group</t>
+  </si>
+  <si>
+    <t>text.schedule.select.subgroup</t>
+  </si>
+  <si>
+    <t>Select subGroup</t>
+  </si>
+  <si>
+    <t>text.schedule</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>text.schedule.today</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>text.schedule.news</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>text.schedule.news.all.news</t>
+  </si>
+  <si>
+    <t>Check all news</t>
+  </si>
+  <si>
+    <t>text.schedule.add.event.to.schedule</t>
+  </si>
+  <si>
+    <t>Add lesson/event to schedule</t>
+  </si>
+  <si>
+    <t>text.schedule.lesson</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>text.schedule.note</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>text.schedule.event</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>text.schedule.select.subject</t>
+  </si>
+  <si>
+    <t>Select course or graduation project</t>
+  </si>
+  <si>
+    <t>text.schedule.lesson.date</t>
+  </si>
+  <si>
+    <t>Enter lesson date</t>
+  </si>
+  <si>
+    <t>text.schedule.lesson.start</t>
+  </si>
+  <si>
+    <t>Enter lesson start</t>
+  </si>
+  <si>
+    <t>text.schedule.lesson.end</t>
+  </si>
+  <si>
+    <t>Enter lesson end</t>
+  </si>
+  <si>
+    <t>text.schedule.lesson.audience</t>
+  </si>
+  <si>
+    <t>Enter classroom</t>
+  </si>
+  <si>
+    <t>text.schedule.lesson.building</t>
+  </si>
+  <si>
+    <t>Enter building</t>
+  </si>
+  <si>
+    <t>text.schedule.note.date</t>
+  </si>
+  <si>
+    <t>Enter event date</t>
+  </si>
+  <si>
+    <t>text.schedule.note.text</t>
+  </si>
+  <si>
+    <t>Enter event text</t>
+  </si>
+  <si>
+    <t>text.schedule.note.start</t>
+  </si>
+  <si>
+    <t>Enter event start</t>
+  </si>
+  <si>
+    <t>text.schedule.note.end</t>
+  </si>
+  <si>
+    <t>Enter event end</t>
+  </si>
+  <si>
+    <t>text.schedule.field.must.be.not.empty</t>
+  </si>
+  <si>
+    <t>Field must be not empty</t>
+  </si>
+  <si>
+    <t>text.schedule.field.must.be.more</t>
+  </si>
+  <si>
+    <t>Time must be more than 08:00</t>
+  </si>
+  <si>
+    <t>text.schedule.lecture</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>text.schedule.workshop</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>text.schedule.lab</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>text.schedule.course.project</t>
+  </si>
+  <si>
+    <t>Course Project</t>
+  </si>
+  <si>
+    <t>text.schedule.graduation.project</t>
+  </si>
+  <si>
+    <t>Graduation Project</t>
+  </si>
+  <si>
+    <t>text.schedule.lecture.cut</t>
+  </si>
+  <si>
+    <t>Lect.</t>
+  </si>
+  <si>
+    <t>text.schedule.workshop.cut</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>text.schedule.lab.cut</t>
+  </si>
+  <si>
+    <t>text.schedule.course.project.cut</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>text.schedule.graduation.project.cut</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>button.delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>button.edit</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>button.no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>text.schedule.delete.event</t>
+  </si>
+  <si>
+    <t>Delete lesson/event?</t>
+  </si>
+  <si>
+    <t>text.schedule.locale.en</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>text.editor.yes</t>
+  </si>
+  <si>
+    <t>text.editor.no</t>
+  </si>
+  <si>
+    <t>text.editor.open</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>text.editor.close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>text.editor.cancel</t>
+  </si>
+  <si>
+    <t>text.editor.remove</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>text.editor.save</t>
+  </si>
+  <si>
+    <t>text.editor.rename</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>text.editor.adding</t>
+  </si>
+  <si>
+    <t>Adding</t>
+  </si>
+  <si>
+    <t>text.editor.new.theme</t>
+  </si>
+  <si>
+    <t>a new theme</t>
+  </si>
+  <si>
+    <t>text.editor.new.book</t>
+  </si>
+  <si>
+    <t>a new book</t>
+  </si>
+  <si>
+    <t>text.editor.add.new.theme</t>
+  </si>
+  <si>
+    <t>Add new theme</t>
+  </si>
+  <si>
+    <t>text.editor.edit.theme</t>
+  </si>
+  <si>
+    <t>Editing a theme</t>
+  </si>
+  <si>
+    <t>text.editor.edit.book</t>
+  </si>
+  <si>
+    <t>Editing a book</t>
+  </si>
+  <si>
+    <t>text.editor.hint.closed.section</t>
+  </si>
+  <si>
+    <t>This section is closed to users</t>
+  </si>
+  <si>
+    <t>text.editor.hint.add.new.book</t>
+  </si>
+  <si>
+    <t>Adding a new book</t>
+  </si>
+  <si>
+    <t>text.editor.hint.enter.content.here</t>
+  </si>
+  <si>
+    <t>Enter content here...</t>
+  </si>
+  <si>
+    <t>text.editor.confirmation</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>text.editor.remove.confirmation.text</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove the </t>
+  </si>
+  <si>
+    <t>text.editor.hint.roll.up</t>
+  </si>
+  <si>
+    <t>Roll up</t>
+  </si>
+  <si>
+    <t>text.editor.hint.expand</t>
+  </si>
+  <si>
+    <t>Expand</t>
+  </si>
+  <si>
+    <t>text.editor.emptylist</t>
+  </si>
+  <si>
+    <t>List is empty</t>
+  </si>
+  <si>
+    <t>text.news</t>
+  </si>
+  <si>
+    <t>text.news.plural</t>
+  </si>
+  <si>
+    <t>text.news.accusative</t>
+  </si>
+  <si>
+    <t>text.student</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>text.students</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>text.students.selected.genitive</t>
+  </si>
+  <si>
+    <t>Selected students</t>
+  </si>
+  <si>
+    <t>text.lectures</t>
+  </si>
+  <si>
+    <t>text.lectures.plural</t>
+  </si>
+  <si>
+    <t>Lectures</t>
+  </si>
+  <si>
+    <t>text.attachments</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>text.attachments.plural</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>text.subjects.attendance.students</t>
+  </si>
+  <si>
+    <t>Students attendance</t>
+  </si>
+  <si>
+    <t>text.subjects.attendance.lesson</t>
+  </si>
+  <si>
+    <t>Lessons attendance</t>
+  </si>
+  <si>
+    <t>text.schedule.management</t>
+  </si>
+  <si>
+    <t>Schedule management</t>
+  </si>
+  <si>
+    <t>text.schedule.management.dates</t>
+  </si>
+  <si>
+    <t>Dates management</t>
+  </si>
+  <si>
+    <t>text.schedule.management.delete.all</t>
+  </si>
+  <si>
+    <t>Delete all dates</t>
+  </si>
+  <si>
+    <t>text.schedule.dates.and.connected.data</t>
+  </si>
+  <si>
+    <t>dates and all related data</t>
+  </si>
+  <si>
+    <t>text.schedule.dates</t>
+  </si>
+  <si>
+    <t>Dates of classes</t>
+  </si>
+  <si>
+    <t>text.schedule.management.dates.deleting</t>
+  </si>
+  <si>
+    <t>Deleting dates</t>
+  </si>
+  <si>
+    <t>text.schedule.date.and.connected.data</t>
+  </si>
+  <si>
+    <t>date and all related data</t>
+  </si>
+  <si>
+    <t>text.visiting.date.editing</t>
+  </si>
+  <si>
+    <t>Editable date</t>
+  </si>
+  <si>
+    <t>text.average.mark</t>
+  </si>
+  <si>
+    <t>Average mark</t>
+  </si>
+  <si>
+    <t>text.average.test</t>
+  </si>
+  <si>
+    <t>Average tests mark</t>
+  </si>
+  <si>
+    <t>text.rating</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>text.subjects.grading</t>
+  </si>
+  <si>
+    <t>Grading</t>
+  </si>
+  <si>
+    <t>text.subjects.missed</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>text.subjects.missed.hours</t>
+  </si>
+  <si>
+    <t>hour(s)</t>
+  </si>
+  <si>
+    <t>text.subjects.editing</t>
+  </si>
+  <si>
+    <t>text.subjects.lector.appending</t>
+  </si>
+  <si>
+    <t>Attaching a teacher to a subject</t>
+  </si>
+  <si>
+    <t>text.subjects.mark.insert</t>
+  </si>
+  <si>
+    <t>Rate (from 0 to 10)</t>
+  </si>
+  <si>
+    <t>text.subjects.mark.recommended</t>
+  </si>
+  <si>
+    <t>Recommended mark</t>
+  </si>
+  <si>
+    <t>text.subjects.mark.date</t>
+  </si>
+  <si>
+    <t>Rate date</t>
+  </si>
+  <si>
+    <t>text.subjects.mark.by</t>
+  </si>
+  <si>
+    <t>Rated</t>
+  </si>
+  <si>
+    <t>text.download</t>
+  </si>
+  <si>
+    <t>Downlaod</t>
+  </si>
+  <si>
+    <t>text.download.archive</t>
+  </si>
+  <si>
+    <t>Download as archive</t>
+  </si>
+  <si>
+    <t>text.action</t>
+  </si>
+  <si>
+    <t>text.number.hours</t>
+  </si>
+  <si>
+    <t>Number of hours</t>
+  </si>
+  <si>
+    <t>text.number.hours.missed</t>
+  </si>
+  <si>
+    <t>Missed hours</t>
+  </si>
+  <si>
+    <t>text.delete.question</t>
+  </si>
+  <si>
+    <t>Are you sure to delete</t>
+  </si>
+  <si>
+    <t>text.subjects.attachments.material</t>
+  </si>
+  <si>
+    <t>Attached material</t>
+  </si>
+  <si>
+    <t>text.subjects.attachments.add</t>
+  </si>
+  <si>
+    <t>Add file</t>
+  </si>
+  <si>
+    <t>text.subjects.attachments.attached</t>
+  </si>
+  <si>
+    <t>Attached file</t>
+  </si>
+  <si>
+    <t>text.subjects.attachments.loaded</t>
+  </si>
+  <si>
+    <t>Loaded file</t>
+  </si>
+  <si>
+    <t>text.subjects.attachments.delete</t>
+  </si>
+  <si>
+    <t>Delete file</t>
+  </si>
+  <si>
+    <t>text.subjects.attachments.files</t>
+  </si>
+  <si>
+    <t>Subject files</t>
+  </si>
+  <si>
+    <t>text.subjects.news.add</t>
+  </si>
+  <si>
+    <t>Add news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.hide.all</t>
+  </si>
+  <si>
+    <t>Hide all news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.show.all</t>
+  </si>
+  <si>
+    <t>Show all news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.edit</t>
+  </si>
+  <si>
+    <t>Edit news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.delete</t>
+  </si>
+  <si>
+    <t>Delete news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.editing</t>
+  </si>
+  <si>
+    <t>Editing news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.adding</t>
+  </si>
+  <si>
+    <t>Adding news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.deleting</t>
+  </si>
+  <si>
+    <t>Deleting news</t>
+  </si>
+  <si>
+    <t>text.subjects.news.title</t>
+  </si>
+  <si>
+    <t>News title</t>
+  </si>
+  <si>
+    <t>text.subjects.news.text</t>
+  </si>
+  <si>
+    <t>News text</t>
+  </si>
+  <si>
+    <t>text.subjects.news.date.leave</t>
+  </si>
+  <si>
+    <t>Leave the old date</t>
+  </si>
+  <si>
+    <t>text.subjects.news.hide</t>
+  </si>
+  <si>
+    <t>Hide news</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.attending</t>
+  </si>
+  <si>
+    <t>Attending lectures</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.add</t>
+  </si>
+  <si>
+    <t>Add lecture</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.theme</t>
+  </si>
+  <si>
+    <t>Lecture topic</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.edit</t>
+  </si>
+  <si>
+    <t>Edit lecture</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.delete</t>
+  </si>
+  <si>
+    <t>Delete lecture</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.editing</t>
+  </si>
+  <si>
+    <t>Editing lecture topic</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.deleting</t>
+  </si>
+  <si>
+    <t>Deleting lecture</t>
+  </si>
+  <si>
+    <t>text.subjects.lectures.adding</t>
+  </si>
+  <si>
+    <t>Adding lecture topic</t>
+  </si>
+  <si>
+    <t>text.groups.detached</t>
+  </si>
+  <si>
+    <t>Detached groups</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals</t>
+  </si>
+  <si>
+    <t>Practical lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.plural</t>
+  </si>
+  <si>
+    <t>Practicals lessons</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.theme</t>
+  </si>
+  <si>
+    <t>Lesson topic</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.add</t>
+  </si>
+  <si>
+    <t>Add lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.edit</t>
+  </si>
+  <si>
+    <t>Edit practical lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.delete</t>
+  </si>
+  <si>
+    <t>Delete practical lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.adding</t>
+  </si>
+  <si>
+    <t>Adding practical lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.editing</t>
+  </si>
+  <si>
+    <t>Editing practical lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.prefix</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.name</t>
+  </si>
+  <si>
+    <t>The name of the practical lesson</t>
+  </si>
+  <si>
+    <t>text.subjects.labs</t>
+  </si>
+  <si>
+    <t>Laboratory work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.plural</t>
+  </si>
+  <si>
+    <t>Laboratory works</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.dative</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.theme</t>
+  </si>
+  <si>
+    <t>Laboratory work topic</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.add</t>
+  </si>
+  <si>
+    <t>Add work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.edit</t>
+  </si>
+  <si>
+    <t>Edit work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.delete</t>
+  </si>
+  <si>
+    <t>Delete work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.adding</t>
+  </si>
+  <si>
+    <t>Adding laboratory work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.editing</t>
+  </si>
+  <si>
+    <t>Editing laboratory work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.prefix</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.deleting</t>
+  </si>
+  <si>
+    <t>Deleting laboratory work</t>
+  </si>
+  <si>
+    <t>text.subjects.labs.name</t>
+  </si>
+  <si>
+    <t>The name on the laboratory work</t>
+  </si>
+  <si>
+    <t>text.subjects.lector.joining</t>
+  </si>
+  <si>
+    <t>Joining the lector to the subject</t>
+  </si>
+  <si>
+    <t>text.subjects.lector.choose</t>
+  </si>
+  <si>
+    <t>Select a lector</t>
+  </si>
+  <si>
+    <t>text.subjects.lector.plural</t>
+  </si>
+  <si>
+    <t>Lectors</t>
+  </si>
+  <si>
+    <t>text.subjects.lector.joined</t>
+  </si>
+  <si>
+    <t>Joined lectors</t>
+  </si>
+  <si>
+    <t>text.subjects.lector.disjoin</t>
+  </si>
+  <si>
+    <t>Disjoin the lector</t>
+  </si>
+  <si>
+    <t>schedule.protection</t>
+  </si>
+  <si>
+    <t>Schedule protection</t>
+  </si>
+  <si>
+    <t>visit.statistics</t>
+  </si>
+  <si>
+    <t>Visit statistics</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>works.protection</t>
+  </si>
+  <si>
+    <t>Protection of works</t>
+  </si>
+  <si>
+    <t>text.check.plagiarism</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>text.check.plagiarism.all</t>
+  </si>
+  <si>
+    <t>Check for plagiarism of all works</t>
+  </si>
+  <si>
+    <t>text.refresh.data</t>
+  </si>
+  <si>
+    <t>Refresh data</t>
+  </si>
+  <si>
+    <t>text.personalAccount.personalAccount</t>
+  </si>
+  <si>
+    <t>User's personal account</t>
+  </si>
+  <si>
+    <t>text.personalAccount.loadPhoto</t>
+  </si>
+  <si>
+    <t>Load photo</t>
+  </si>
+  <si>
+    <t>text.personalAccount.save</t>
+  </si>
+  <si>
+    <t>Save changes</t>
+  </si>
+  <si>
+    <t>text.personalAccount.firstName</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>text.personalAccount.middleName</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>text.personalAccount.lastName</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>text.personalAccount.login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>text.personalAccount.followToChangePassword</t>
+  </si>
+  <si>
+    <t>Follow to change password</t>
+  </si>
+  <si>
+    <t>text.personalAccount.about</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>text.personalAccount.skype</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>text.personalAccount.email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>text.personalAccount.phoneNumber</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changesSaved</t>
+  </si>
+  <si>
+    <t>Changes were saved successfully =)</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changesNotSaved</t>
+  </si>
+  <si>
+    <t>Changes were't saved successfully =(</t>
+  </si>
+  <si>
+    <t>text.personalAccount.wrongEmail</t>
+  </si>
+  <si>
+    <t>Wrong email format!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.wrongNumber</t>
+  </si>
+  <si>
+    <t>Wrong phone number format!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.wrongName</t>
+  </si>
+  <si>
+    <t>Field must have from 3 to 30 symbols!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.wrongImage</t>
+  </si>
+  <si>
+    <t>Wrong image format!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.wrongData</t>
+  </si>
+  <si>
+    <t>Some fields are invalid!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.passwordChanged</t>
+  </si>
+  <si>
+    <t>Password was changed successfully =)</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.passwordNotChanged</t>
+  </si>
+  <si>
+    <t>Password was't changed successfully =(</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.putOldPassword</t>
+  </si>
+  <si>
+    <t>Put old password</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.putNewPassword</t>
+  </si>
+  <si>
+    <t>Put new password</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.repeatPassword</t>
+  </si>
+  <si>
+    <t>RepeatPassword</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.change</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.passwordsNotMatch</t>
+  </si>
+  <si>
+    <t>Passwords don't match!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.invalidPassword</t>
+  </si>
+  <si>
+    <t>Password has wrong format!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.changePassword.wrongPassword</t>
+  </si>
+  <si>
+    <t>Wrong password!</t>
+  </si>
+  <si>
+    <t>text.personalAccount.GroupName</t>
+  </si>
+  <si>
+    <t>text.start.title</t>
+  </si>
+  <si>
+    <t>Adaptive learning management system</t>
   </si>
   <si>
     <t>Предметы</t>
   </si>
   <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Другие</t>
+  </si>
+  <si>
+    <t>Группы</t>
+  </si>
+  <si>
     <t>Сохранить</t>
   </si>
   <si>
+    <t>Закрыть</t>
+  </si>
+  <si>
+    <t>Удалить</t>
+  </si>
+  <si>
+    <t>Добавить</t>
+  </si>
+  <si>
+    <t>Присоединить</t>
+  </si>
+  <si>
     <t>Отмена</t>
   </si>
   <si>
+    <t>КБ</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>Дата обязательна</t>
+  </si>
+  <si>
+    <t>Выбранные даты</t>
+  </si>
+  <si>
+    <t>Удалить дату</t>
+  </si>
+  <si>
+    <t>Начало занятия</t>
+  </si>
+  <si>
+    <t>Начало занятия обязательно</t>
+  </si>
+  <si>
+    <t>Конец занятия</t>
+  </si>
+  <si>
+    <t>Конец зантия обязательно</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
+  <si>
+    <t>Аудитория</t>
+  </si>
+  <si>
+    <t>Аудитория обязательно</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Показать комментарий студенту</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Подгруппа</t>
+  </si>
+  <si>
+    <t>Разделение на подгруппы</t>
+  </si>
+  <si>
+    <t>Управление подгруппами</t>
+  </si>
+  <si>
+    <t>Управление предметом</t>
+  </si>
+  <si>
+    <t>Выберите предмет</t>
+  </si>
+  <si>
+    <t>Удаление предмета</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Добавить предмет</t>
+  </si>
+  <si>
+    <t>Название предмета</t>
+  </si>
+  <si>
+    <t>Аббревиатура</t>
+  </si>
+  <si>
+    <t>Цвет предмета</t>
+  </si>
+  <si>
+    <t>Редактировать предмет</t>
+  </si>
+  <si>
+    <t>Удалить предмет</t>
+  </si>
+  <si>
+    <t>Присоединить преподавателя</t>
+  </si>
+  <si>
+    <t>Краткое название</t>
+  </si>
+  <si>
+    <t>Сокращенное название</t>
+  </si>
+  <si>
+    <t>Создание предмета</t>
+  </si>
+  <si>
+    <t>Редактирование предмета</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
     <t>В данный момент тесты проходят:</t>
   </si>
   <si>
@@ -851,6 +2399,9 @@
     <t>Задание к вопросу</t>
   </si>
   <si>
+    <t>Открыь описание</t>
+  </si>
+  <si>
     <t>Ответы</t>
   </si>
   <si>
@@ -899,7 +2450,7 @@
     <t>Ошибка ответа сервера</t>
   </si>
   <si>
-    <t>Вернуться к тестам</t>
+    <t>&lt; К тестам</t>
   </si>
   <si>
     <t>Вопросы</t>
@@ -974,6 +2525,9 @@
     <t>ФИО студента</t>
   </si>
   <si>
+    <t>Тест</t>
+  </si>
+  <si>
     <t>тест не пройден</t>
   </si>
   <si>
@@ -983,9 +2537,6 @@
     <t>Нет результатов для отображения</t>
   </si>
   <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Редактировать вопрос</t>
   </si>
   <si>
@@ -1004,103 +2555,553 @@
     <t>Закрыть для всех</t>
   </si>
   <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Подгруппа </t>
+  </si>
+  <si>
+    <t>Редактирование теста</t>
+  </si>
+  <si>
+    <t>Добавление теста</t>
+  </si>
+  <si>
+    <t>Описание теста</t>
+  </si>
+  <si>
+    <t>Длина превышает 1000 символов</t>
+  </si>
+  <si>
+    <t>Количество вопросов</t>
+  </si>
+  <si>
+    <t>Уменьшите количество вопросов</t>
+  </si>
+  <si>
+    <t>Количество вопросов должно быть больше нуля</t>
+  </si>
+  <si>
+    <t>Введите количество вопросов</t>
+  </si>
+  <si>
+    <t>Количество вопросов в тестовом наборе для каждого обучающегося</t>
+  </si>
+  <si>
+    <t>Время на тест (мин)</t>
+  </si>
+  <si>
+    <t>Уменьшите время</t>
+  </si>
+  <si>
+    <t>Время должно быть больше нуля</t>
+  </si>
+  <si>
+    <t>Введите время</t>
+  </si>
+  <si>
+    <t>Задать время на 1 вопрос (сек)</t>
+  </si>
+  <si>
+    <t>Выберите тип</t>
+  </si>
+  <si>
+    <t>Тест создан</t>
+  </si>
+  <si>
+    <t>Тест изменен</t>
+  </si>
+  <si>
+    <t>Проверьте правильность заполенения данных</t>
+  </si>
+  <si>
+    <t>Не удалось удалить тест</t>
+  </si>
+  <si>
+    <t>Начать тест</t>
+  </si>
+  <si>
+    <t>Далее</t>
+  </si>
+  <si>
+    <t>Ваш ответ:</t>
+  </si>
+  <si>
+    <t>Введите ответ</t>
+  </si>
+  <si>
+    <t>Ответить</t>
+  </si>
+  <si>
+    <t>Пропустить</t>
+  </si>
+  <si>
+    <t>Выберите вариант ответа</t>
+  </si>
+  <si>
+    <t>Вопрос №{number}</t>
+  </si>
+  <si>
+    <t>Тест на тему «{title}» завершен</t>
+  </si>
+  <si>
+    <t>Время прохождения: {start} - {end}</t>
+  </si>
+  <si>
+    <t>Ваша оценка - {mark} ({percent}%)</t>
+  </si>
+  <si>
+    <t>Результаты тестировния</t>
+  </si>
+  <si>
+    <t>Контроль прохождения тестов</t>
+  </si>
+  <si>
+    <t>Темы тестов</t>
+  </si>
+  <si>
+    <t>Дата прохождения теста: </t>
+  </si>
+  <si>
+    <t>Время начала теста: </t>
+  </si>
+  <si>
+    <t>Время окончания теста: </t>
+  </si>
+  <si>
+    <t>Время на вопрос (сек)</t>
+  </si>
+  <si>
+    <t>Оценка: {mark} ({percent}%)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Открыть</t>
+  </si>
+  <si>
+    <t>Переименовать</t>
+  </si>
+  <si>
+    <t>Добавление</t>
+  </si>
+  <si>
+    <t>новой темы</t>
+  </si>
+  <si>
+    <t>нового учебника</t>
+  </si>
+  <si>
+    <t>Добавить новую тему</t>
+  </si>
+  <si>
+    <t>Редактирование темы</t>
+  </si>
+  <si>
+    <t>Редактирование учебника</t>
+  </si>
+  <si>
+    <t>Этот раздел закрыт для пользователей</t>
+  </si>
+  <si>
+    <t>Добавление нового учебника</t>
+  </si>
+  <si>
+    <t>Введите содержание здесь...</t>
+  </si>
+  <si>
+    <t>Подтверждение</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите удалить </t>
+  </si>
+  <si>
+    <t>Свернуть</t>
+  </si>
+  <si>
+    <t>Развернуть</t>
+  </si>
+  <si>
+    <t>Список пуст</t>
+  </si>
+  <si>
+    <t>Новость</t>
+  </si>
+  <si>
+    <t>Новости</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Студенты</t>
+  </si>
+  <si>
+    <t>Выбранных студентов</t>
+  </si>
+  <si>
+    <t>Лекция</t>
+  </si>
+  <si>
+    <t>Лекции</t>
+  </si>
+  <si>
+    <t>Файл</t>
+  </si>
+  <si>
+    <t>Файлы</t>
+  </si>
+  <si>
+    <t>Посещаемость студентов</t>
+  </si>
+  <si>
+    <t>Посещаемость занятий</t>
+  </si>
+  <si>
+    <t>Управление расписанием</t>
+  </si>
+  <si>
+    <t>Управление датами</t>
+  </si>
+  <si>
+    <t>Удалить все даты</t>
+  </si>
+  <si>
+    <t>даты и все связанные с ними данные</t>
+  </si>
+  <si>
+    <t>Даты занятий</t>
+  </si>
+  <si>
+    <t>text.schedule.dates.deleting</t>
+  </si>
+  <si>
+    <t>Удаление дат</t>
+  </si>
+  <si>
+    <t>дату и все связанные с ней данные</t>
+  </si>
+  <si>
+    <t>Редактируемая дата</t>
+  </si>
+  <si>
+    <t>Средняя оценка</t>
+  </si>
+  <si>
+    <t>Средняя оценка за тесты</t>
+  </si>
+  <si>
+    <t>Рейтинговая оценка</t>
+  </si>
+  <si>
+    <t>Выставление оценки</t>
+  </si>
+  <si>
+    <t>Пропустил(a)</t>
+  </si>
+  <si>
+    <t>часа(ов)</t>
+  </si>
+  <si>
+    <t>Присоединение преподавателя к предмету</t>
+  </si>
+  <si>
+    <t>Поставьте оценку (от 0 до 10)</t>
+  </si>
+  <si>
+    <t>Рекомендуемая оценка</t>
+  </si>
+  <si>
+    <t>Дата выставления</t>
+  </si>
+  <si>
+    <t>Оценку поставил(а)</t>
+  </si>
+  <si>
+    <t>Скачать</t>
+  </si>
+  <si>
+    <t>Скачать архивом</t>
+  </si>
+  <si>
+    <t>Количество часов</t>
+  </si>
+  <si>
+    <t>Пропущено часов</t>
+  </si>
+  <si>
+    <t>Вы действительно хотите удалить</t>
+  </si>
+  <si>
+    <t>Прикрепленный материал</t>
+  </si>
+  <si>
+    <t>Добавить файл</t>
+  </si>
+  <si>
+    <t>Прикрепленный файл</t>
+  </si>
+  <si>
+    <t>Загруженный файл</t>
+  </si>
+  <si>
+    <t>Удалить файл</t>
+  </si>
+  <si>
+    <t>Предметные файлы</t>
+  </si>
+  <si>
+    <t>Добавить новость</t>
+  </si>
+  <si>
+    <t>Скрыть все новости</t>
+  </si>
+  <si>
+    <t>Показать все новости</t>
+  </si>
+  <si>
+    <t>Редактировать новость</t>
+  </si>
+  <si>
+    <t>Удалить новость</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>Добавление новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Название новости</t>
+  </si>
+  <si>
+    <t>Текст новости</t>
+  </si>
+  <si>
+    <t>Оставить старую дату</t>
+  </si>
+  <si>
+    <t>Скрыть новость</t>
+  </si>
+  <si>
+    <t>Посещение лекций</t>
+  </si>
+  <si>
+    <t>Добавить лекцию</t>
+  </si>
+  <si>
+    <t>Тема лекции</t>
+  </si>
+  <si>
+    <t>Редактировать лекцию</t>
+  </si>
+  <si>
+    <t>Удалить лекцию</t>
+  </si>
+  <si>
+    <t>Редактирование темы лекции</t>
+  </si>
+  <si>
+    <t>Удаление лекции</t>
+  </si>
+  <si>
+    <t>Добавление темы лекции</t>
+  </si>
+  <si>
+    <t>Откреплённые группы</t>
+  </si>
+  <si>
+    <t>Практическое занятие</t>
+  </si>
+  <si>
+    <t>Практические занятия</t>
+  </si>
+  <si>
+    <t>Тема занятия</t>
+  </si>
+  <si>
+    <t>Добавить занятие</t>
+  </si>
+  <si>
+    <t>Редактировать практическое занятие</t>
+  </si>
+  <si>
+    <t>Удалить практическое занятие</t>
+  </si>
+  <si>
+    <t>Добавление практического занятия</t>
+  </si>
+  <si>
+    <t>Редактирование практического занятия</t>
+  </si>
+  <si>
+    <t>ПЗ</t>
+  </si>
+  <si>
+    <t>text.subjects.practicals.deleting</t>
+  </si>
+  <si>
+    <t>Удаление практического занятия</t>
+  </si>
+  <si>
+    <t>Название практического занятия</t>
+  </si>
+  <si>
+    <t>Лабораторная работа</t>
+  </si>
+  <si>
+    <t>Лабораторные работы</t>
+  </si>
+  <si>
+    <t>Лабораторную работу</t>
+  </si>
+  <si>
+    <t>Тема работы</t>
+  </si>
+  <si>
+    <t>Добавить работу</t>
+  </si>
+  <si>
+    <t>Редактировать лабораторную работу</t>
+  </si>
+  <si>
+    <t>Удалить лабораторную работу</t>
+  </si>
+  <si>
+    <t>Добавление лабораторной работы</t>
+  </si>
+  <si>
+    <t>Редактирование лабораторной работы</t>
+  </si>
+  <si>
+    <t>ЛР</t>
+  </si>
+  <si>
+    <t>Удаление лабораторной работы</t>
+  </si>
+  <si>
+    <t>Название лабораторной работы</t>
+  </si>
+  <si>
+    <t>Выберите преподавателя</t>
+  </si>
+  <si>
+    <t>Преподаватели</t>
+  </si>
+  <si>
+    <t>Отсоединить преподавателя</t>
+  </si>
+  <si>
+    <t>Присоединенные преподаватели</t>
+  </si>
+  <si>
+    <t>График защиты</t>
+  </si>
+  <si>
+    <t>Статистика посещения</t>
+  </si>
+  <si>
+    <t>Результаты</t>
+  </si>
+  <si>
+    <t>Защита работ</t>
+  </si>
+  <si>
+    <t>Проверить на плагиат всех работ</t>
+  </si>
+  <si>
+    <t>Обновить данные</t>
+  </si>
+  <si>
+    <t>Личный кабинет пользователя</t>
+  </si>
+  <si>
+    <t>Загрузить изображение</t>
+  </si>
+  <si>
     <t>Имя</t>
   </si>
   <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Подгруппа </t>
-  </si>
-  <si>
-    <t>Редактирование теста</t>
-  </si>
-  <si>
-    <t>Добавление теста</t>
-  </si>
-  <si>
-    <t>Описание теста</t>
-  </si>
-  <si>
-    <t>Длина превышает 1000 символов</t>
-  </si>
-  <si>
-    <t>Количество вопросов</t>
-  </si>
-  <si>
-    <t>Уменьшите количество вопросов</t>
-  </si>
-  <si>
-    <t>Количество вопросов должно быть больше нуля</t>
-  </si>
-  <si>
-    <t>Введите количество вопросов</t>
-  </si>
-  <si>
-    <t>Количество вопросов в тестовом наборе для каждого обучающегося</t>
-  </si>
-  <si>
-    <t>Время на тест (мин)</t>
-  </si>
-  <si>
-    <t>Уменьшите время</t>
-  </si>
-  <si>
-    <t>Время должно быть больше нуля</t>
-  </si>
-  <si>
-    <t>Введите время</t>
-  </si>
-  <si>
-    <t>Задать время на 1 вопрос (сек)</t>
-  </si>
-  <si>
-    <t>Выберите тип</t>
-  </si>
-  <si>
-    <t>Тест создан</t>
-  </si>
-  <si>
-    <t>Тест изменен</t>
-  </si>
-  <si>
-    <t>Проверьте правильность заполенения данных</t>
-  </si>
-  <si>
-    <t>Не удалось удалить тест</t>
-  </si>
-  <si>
-    <t>Начать тест</t>
-  </si>
-  <si>
-    <t>Далее</t>
-  </si>
-  <si>
-    <t>Ваш ответ:</t>
-  </si>
-  <si>
-    <t>Введите ответ</t>
-  </si>
-  <si>
-    <t>Ответить</t>
-  </si>
-  <si>
-    <t>Пропустить</t>
-  </si>
-  <si>
-    <t>Выберите вариант ответа</t>
-  </si>
-  <si>
-    <t>Вопрос №{number}</t>
-  </si>
-  <si>
-    <t>Тест на тему «{title}» завершен</t>
-  </si>
-  <si>
-    <t>Время прохождения: {start} - {end}</t>
-  </si>
-  <si>
-    <t>Ваша оценка - {mark}</t>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Изменить пароль</t>
+  </si>
+  <si>
+    <t>Перейдите, чтобы сменить пароль</t>
+  </si>
+  <si>
+    <t>О себе</t>
+  </si>
+  <si>
+    <t>Скайп</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Изменения успешно сохранены =)</t>
+  </si>
+  <si>
+    <t>Изменения не были сохранены =(</t>
+  </si>
+  <si>
+    <t>Неверный формат почты!</t>
+  </si>
+  <si>
+    <t>Неверный формат телефона!</t>
+  </si>
+  <si>
+    <t>Поле должно иметь длинну от 3 до 30 символов!</t>
+  </si>
+  <si>
+    <t>Недопустимый формат изображения!</t>
+  </si>
+  <si>
+    <t>Некоторые поля не соответствуют формату!</t>
+  </si>
+  <si>
+    <t>Пароль успешно изменен =)</t>
+  </si>
+  <si>
+    <t>Пароль не был изменен =(</t>
+  </si>
+  <si>
+    <t>Введите старый пароль</t>
+  </si>
+  <si>
+    <t>Введите новый пароль</t>
+  </si>
+  <si>
+    <t>Повторите пароль</t>
+  </si>
+  <si>
+    <t>Изменить</t>
+  </si>
+  <si>
+    <t>Пароли не совпадают!</t>
+  </si>
+  <si>
+    <t>Некорректный формат пароля!</t>
+  </si>
+  <si>
+    <t>Неверный пароль!</t>
+  </si>
+  <si>
+    <t>Адаптивная обучающая система</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +3141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1219,687 +3220,687 @@
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="0" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2124,6 +4125,1966 @@
       </c>
       <c r="B122" s="0" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +6094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2148,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>242</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2156,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2164,7 +6125,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>244</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2172,7 +6133,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>245</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2180,7 +6141,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>246</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2188,327 +6149,327 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>247</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>248</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>249</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>250</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>251</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>252</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>253</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>254</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>255</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>256</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>257</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>258</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>259</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>260</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>261</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>262</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>263</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>264</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>265</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>266</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>267</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>268</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>269</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>270</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>271</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>272</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>273</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>274</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>275</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>276</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="0" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>277</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="0" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>278</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="0" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>279</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>280</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="0" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>281</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="0" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>282</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="0" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>283</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="0" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>284</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="0" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>285</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="0" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>286</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>287</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2516,7 +6477,7 @@
         <v>92</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>288</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2524,7 +6485,7 @@
         <v>94</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>289</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2532,7 +6493,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>290</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2540,7 +6501,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>291</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2548,7 +6509,7 @@
         <v>100</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>292</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2556,7 +6517,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>293</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2564,7 +6525,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>294</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2572,7 +6533,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>295</v>
+        <v>768</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2580,7 +6541,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>296</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2588,7 +6549,7 @@
         <v>110</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>297</v>
+        <v>770</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2596,7 +6557,7 @@
         <v>112</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>298</v>
+        <v>771</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2604,7 +6565,7 @@
         <v>114</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>299</v>
+        <v>772</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2612,7 +6573,7 @@
         <v>116</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>300</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2620,7 +6581,7 @@
         <v>118</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>301</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2628,7 +6589,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>302</v>
+        <v>775</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2636,7 +6597,7 @@
         <v>122</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>303</v>
+        <v>776</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2644,7 +6605,7 @@
         <v>124</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>304</v>
+        <v>777</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2652,7 +6613,7 @@
         <v>126</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>305</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2660,7 +6621,7 @@
         <v>128</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>306</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2668,7 +6629,7 @@
         <v>130</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>307</v>
+        <v>780</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2676,7 +6637,7 @@
         <v>132</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>308</v>
+        <v>781</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2684,7 +6645,7 @@
         <v>134</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>309</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2692,7 +6653,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>310</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2700,7 +6661,7 @@
         <v>138</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>311</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2708,7 +6669,7 @@
         <v>140</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>312</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2716,7 +6677,7 @@
         <v>142</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>313</v>
+        <v>786</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2724,7 +6685,7 @@
         <v>144</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>314</v>
+        <v>787</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2732,7 +6693,7 @@
         <v>146</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>315</v>
+        <v>788</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2740,7 +6701,7 @@
         <v>148</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>316</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2748,7 +6709,7 @@
         <v>150</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>317</v>
+        <v>790</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2756,7 +6717,7 @@
         <v>152</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>318</v>
+        <v>791</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2764,7 +6725,7 @@
         <v>154</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>319</v>
+        <v>792</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2772,7 +6733,7 @@
         <v>156</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>320</v>
+        <v>793</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2780,7 +6741,7 @@
         <v>158</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>321</v>
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2788,7 +6749,7 @@
         <v>160</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>322</v>
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2796,7 +6757,7 @@
         <v>162</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>323</v>
+        <v>796</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2804,7 +6765,7 @@
         <v>164</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>324</v>
+        <v>797</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2812,7 +6773,7 @@
         <v>166</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>325</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2820,7 +6781,7 @@
         <v>168</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>326</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2828,7 +6789,7 @@
         <v>170</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>327</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2836,7 +6797,7 @@
         <v>172</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>328</v>
+        <v>801</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2844,7 +6805,7 @@
         <v>174</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>329</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2852,7 +6813,7 @@
         <v>176</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>330</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2860,7 +6821,7 @@
         <v>178</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>331</v>
+        <v>804</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2868,7 +6829,7 @@
         <v>180</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>332</v>
+        <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2876,7 +6837,7 @@
         <v>182</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>333</v>
+        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2884,239 +6845,1887 @@
         <v>184</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>334</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>306</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>335</v>
+        <v>809</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>336</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>337</v>
+        <v>811</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>338</v>
+        <v>812</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>339</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>340</v>
+        <v>814</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>341</v>
+        <v>815</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>342</v>
+        <v>816</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>343</v>
+        <v>817</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>344</v>
+        <v>818</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>345</v>
+        <v>819</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>346</v>
+        <v>820</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>347</v>
+        <v>821</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>348</v>
+        <v>822</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>349</v>
+        <v>823</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>350</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>351</v>
+        <v>825</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>352</v>
+        <v>826</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>353</v>
+        <v>827</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>354</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>355</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>356</v>
+        <v>830</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>357</v>
+        <v>831</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>358</v>
+        <v>832</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>359</v>
+        <v>833</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>360</v>
+        <v>834</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>361</v>
+        <v>835</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>362</v>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
